--- a/Google API geolocation/output.xlsx
+++ b/Google API geolocation/output.xlsx
@@ -5448,13 +5448,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>634.772842</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>42.32905</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>-83.03980870000001</v>
       </c>
     </row>
     <row r="210">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>544.253746</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>35.0607938</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>-80.84582279999999</v>
       </c>
     </row>
     <row r="211">
@@ -5496,13 +5496,13 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>899.3743899999999</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>36.0032415</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>-86.5371375</v>
       </c>
     </row>
     <row r="212">
@@ -5520,13 +5520,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>872.65484</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>42.8233187</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>-86.01236510000001</v>
       </c>
     </row>
     <row r="213">
@@ -5544,13 +5544,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>867.09468</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>33.8949983</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>-84.469551</v>
       </c>
     </row>
     <row r="214">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>364.667154</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>40.7853634</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>-73.54926759999999</v>
       </c>
     </row>
     <row r="215">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>121.039673</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>39.9611905</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>-76.72729679999999</v>
       </c>
     </row>
     <row r="216">
@@ -5616,13 +5616,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>448.624892</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>41.0576726</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>-81.47621409999999</v>
       </c>
     </row>
     <row r="217">
@@ -5640,13 +5640,13 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1503.089362</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>44.9969399</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>-93.2688223</v>
       </c>
     </row>
     <row r="218">
@@ -5664,13 +5664,13 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>991.799024</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>42.2363993</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>-87.91116100000001</v>
       </c>
     </row>
     <row r="219">
@@ -5688,13 +5688,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>536.9115839999999</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>40.224763</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>-83.04587070000001</v>
       </c>
     </row>
     <row r="220">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1976.315147</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>29.7804663</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>-95.5620831</v>
       </c>
     </row>
     <row r="221">
@@ -5736,13 +5736,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1948.960345</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>29.9362606</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>-95.3418707</v>
       </c>
     </row>
     <row r="222">
@@ -5760,13 +5760,13 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1244.502913</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>28.0875434</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>-80.6372008</v>
       </c>
     </row>
     <row r="223">
@@ -5784,13 +5784,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>151.666608</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>40.2602355</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>-76.91060039999999</v>
       </c>
     </row>
     <row r="224">
@@ -5808,13 +5808,13 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>585.3157639999999</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>41.8837745</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>-71.3526346</v>
       </c>
     </row>
     <row r="225">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>858.819972</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>33.9071289</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>-84.3621273</v>
       </c>
     </row>
     <row r="226">
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>7784.215835</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>21.3081985</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>-157.8608441</v>
       </c>
     </row>
     <row r="227">
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1497.931483</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>45.01258120000001</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>-93.19010050000001</v>
       </c>
     </row>
     <row r="228">
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>224.019971</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>40.11630299999999</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>-74.96034299999999</v>
       </c>
     </row>
     <row r="229">
@@ -5928,13 +5928,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>639.92402</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>41.65311190000001</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>-83.6484413</v>
       </c>
     </row>
     <row r="230">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>306.776456</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>40.4398819</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>-80.0034788</v>
       </c>
     </row>
     <row r="231">
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>2781.025249</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>31.8738093</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>-106.5773261</v>
       </c>
     </row>
     <row r="232">
@@ -6000,13 +6000,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1699.809111</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>36.1411186</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>-95.98789859999999</v>
       </c>
     </row>
     <row r="233">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>159.332426</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>40.3010198</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>-76.64853599999999</v>
       </c>
     </row>
     <row r="234">
@@ -6048,13 +6048,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>3916.644911</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>37.4123125</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>-122.147938</v>
       </c>
     </row>
     <row r="235">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>957.279277</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>41.8854342</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>-87.6227258</v>
       </c>
     </row>
     <row r="236">
@@ -6096,13 +6096,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1905.319786</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>32.7945112</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>-96.8083273</v>
       </c>
     </row>
     <row r="237">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>3360.228678</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>36.1158817</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>-115.1579285</v>
       </c>
     </row>
     <row r="238">
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>867.986662</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>33.8488985</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>-84.432564</v>
       </c>
     </row>
     <row r="239">
@@ -6168,13 +6168,13 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>1224.181267</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>41.4230585</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>-91.04196899999999</v>
       </c>
     </row>
     <row r="240">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1433.237452</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>43.6791178</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>-92.9663559</v>
       </c>
     </row>
     <row r="241">
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>382.537188</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>41.0424412</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>-73.53142800000001</v>
       </c>
     </row>
     <row r="242">
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1962.614348</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>29.7571248</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>-95.36799019999999</v>
       </c>
     </row>
     <row r="243">
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>374.400479</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>41.021535</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>-73.63232669999999</v>
       </c>
     </row>
     <row r="244">
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>429.684144</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>41.296005</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>-73.08080959999999</v>
       </c>
     </row>
     <row r="245">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1537.827889</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>36.2423533</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>-94.14942499999999</v>
       </c>
     </row>
     <row r="246">
@@ -6336,13 +6336,13 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>526.824968</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>39.9611155</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>-83.00096909999999</v>
       </c>
     </row>
     <row r="247">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>366.677988</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>41.03398620000001</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>-73.7629096</v>
       </c>
     </row>
     <row r="248">
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1040.826782</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>30.3259287</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>-81.6617698</v>
       </c>
     </row>
     <row r="249">
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>3293.241438</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>43.6187705</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>-116.2082</v>
       </c>
     </row>
     <row r="250">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>977.293208</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>42.0580186</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>-87.80415020000001</v>
       </c>
     </row>
     <row r="251">
@@ -6456,13 +6456,13 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>925.285273</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>37.9733758</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>-87.57490079999999</v>
       </c>
     </row>
     <row r="252">
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>5456.8437</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>53.4489135</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>-6.2188785</v>
       </c>
     </row>
     <row r="253">
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1180.666432</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>38.6647913</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>-90.6335203</v>
       </c>
     </row>
     <row r="254">
@@ -6528,13 +6528,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>333.948646</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>40.7622869</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>-73.9750432</v>
       </c>
     </row>
     <row r="255">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>3890.880349</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>37.2567114</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>-121.7858772</v>
       </c>
     </row>
     <row r="256">
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>3901.946169</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>37.3881693</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>-121.9656186</v>
       </c>
     </row>
     <row r="257">
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>869.021504</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>33.8688619</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>-84.4693563</v>
       </c>
     </row>
     <row r="258">
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>375.053533</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>41.11340209999999</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>-73.7203561</v>
       </c>
     </row>
     <row r="259">
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>333.487707</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>40.7698438</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>-73.98953060000001</v>
       </c>
     </row>
     <row r="260">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>165.129826</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>39.7795839</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>-75.4940929</v>
       </c>
     </row>
     <row r="261">
@@ -6696,13 +6696,13 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>1214.583211</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>35.1014418</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>-89.85055659999999</v>
       </c>
     </row>
     <row r="262">
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1138.753906</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>29.1932614</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>-81.0715398</v>
       </c>
     </row>
     <row r="263">
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>334.15672</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>40.7583293</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>-73.96798869999999</v>
       </c>
     </row>
     <row r="264">
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>509.394439</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>41.3724673</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>-82.0711859</v>
       </c>
     </row>
     <row r="265">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>980.1341</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>42.0974005</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>-87.8234276</v>
       </c>
     </row>
     <row r="266">
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>3686.965001</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>34.1484824</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>-118.1327948</v>
       </c>
     </row>
     <row r="267">
@@ -6840,13 +6840,13 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>396.745142</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>41.1494149</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>-73.42689899999999</v>
       </c>
     </row>
     <row r="268">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>284.849216</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>40.4994267</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>-74.4418313</v>
       </c>
     </row>
     <row r="269">
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1029.216602</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>43.1257386</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>-87.9393405</v>
       </c>
     </row>
     <row r="270">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>3897.642831</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>37.4192447</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>-121.9265192</v>
       </c>
     </row>
     <row r="271">
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>1962.5115</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>29.7577295</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>-95.36717929999999</v>
       </c>
     </row>
     <row r="272">
@@ -6960,13 +6960,13 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>493.039762</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>41.8594373</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>-72.70906959999999</v>
       </c>
     </row>
     <row r="273">
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1517.880774</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>39.09964960000001</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>-94.58376419999999</v>
       </c>
     </row>
     <row r="274">
@@ -7008,13 +7008,13 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1518.377093</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>39.0998933</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>-94.5895469</v>
       </c>
     </row>
     <row r="275">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1612.406022</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>39.0480472</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>-95.6744743</v>
       </c>
     </row>
     <row r="276">
@@ -7056,13 +7056,13 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>792.343837</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>42.3523506</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>-85.2373001</v>
       </c>
     </row>
     <row r="277">
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>658.20687</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>42.5607669</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>-83.16649129999999</v>
       </c>
     </row>
     <row r="278">
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>253.971498</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>40.2784944</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>-79.3938041</v>
       </c>
     </row>
     <row r="279">
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1919.188206</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>32.898088</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>-97.0337141</v>
       </c>
     </row>
     <row r="280">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1964.273133</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>29.7671505</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>-95.3975102</v>
       </c>
     </row>
     <row r="281">
@@ -7176,13 +7176,13 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>647.84487</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>39.1053942</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>-84.51267439999999</v>
       </c>
     </row>
     <row r="282">
@@ -7200,13 +7200,13 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>15543.682383</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1.3759277</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>103.873525</v>
       </c>
     </row>
     <row r="283">
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1856.523855</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>35.4664072</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>-97.5477209</v>
       </c>
     </row>
     <row r="284">
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>637.090014</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>41.9404709</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>-83.40431239999999</v>
       </c>
     </row>
     <row r="285">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1142.905285</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>38.6258268</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>-90.1928583</v>
       </c>
     </row>
     <row r="286">
@@ -7296,13 +7296,13 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>3898.078059</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>37.488472</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>-121.9574428</v>
       </c>
     </row>
     <row r="287">
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>526.910044</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>39.9618051</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>-83.0018087</v>
       </c>
     </row>
     <row r="288">
@@ -7344,13 +7344,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>544.525294</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>35.0559649</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>-80.8430393</v>
       </c>
     </row>
     <row r="289">
@@ -7368,13 +7368,13 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1532.477185</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>37.1777919</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>-94.38437979999999</v>
       </c>
     </row>
     <row r="290">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>56.945584</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>39.2827091</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>-76.6016377</v>
       </c>
     </row>
     <row r="291">
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>1488.167744</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>25.7769483</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>-80.3704398</v>
       </c>
     </row>
     <row r="292">
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>333.842882</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>40.7601424</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>-73.9744693</v>
       </c>
     </row>
     <row r="293">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>791.488889</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>39.7559112</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>-86.1530808</v>
       </c>
     </row>
     <row r="294">
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>520.1112890000001</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>40.0559168</v>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>-82.8950485</v>
       </c>
     </row>
     <row r="295">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>484.422334</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>41.5884253</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>-81.5195262</v>
       </c>
     </row>
     <row r="296">
@@ -7536,13 +7536,13 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>191.927405</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>40.04303489999999</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>-75.3658121</v>
       </c>
     </row>
     <row r="297">
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>332.379363</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>40.7462222</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>-73.9823298</v>
       </c>
     </row>
     <row r="298">
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>17.252354</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>39.030957</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>-77.1388991</v>
       </c>
     </row>
     <row r="299">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>334.418582</v>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>40.7644359</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>-73.97019949999999</v>
       </c>
     </row>
     <row r="300">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>1951.438992</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>32.755833</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>-97.334729</v>
       </c>
     </row>
     <row r="301">
@@ -7656,13 +7656,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>912.547787</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>36.1648853</v>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>-86.78078099999999</v>
       </c>
     </row>
     <row r="302">
@@ -7680,13 +7680,13 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>476.675445</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>36.1523025</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>-81.1849124</v>
       </c>
     </row>
     <row r="303">
@@ -7704,13 +7704,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>501.779668</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>41.7978742</v>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>-72.5052487</v>
       </c>
     </row>
     <row r="304">
@@ -7728,13 +7728,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>2397.273006</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>39.6357211</v>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>-104.9107342</v>
       </c>
     </row>
     <row r="305">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>2122.651992</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>46.8359799</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>-100.8126149</v>
       </c>
     </row>
     <row r="306">
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1511.492658</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>44.8599252</v>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>-93.4553567</v>
       </c>
     </row>
     <row r="307">
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>1971.231961</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>29.7493564</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>-95.4715705</v>
       </c>
     </row>
     <row r="308">
@@ -7824,13 +7824,13 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>1023.183661</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>43.0389389</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>-87.90956629999999</v>
       </c>
     </row>
     <row r="309">
@@ -7848,13 +7848,13 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>17.013917</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>39.0277524</v>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>-77.14033719999999</v>
       </c>
     </row>
     <row r="310">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>333.113005</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>40.7568582</v>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>-73.9820448</v>
       </c>
     </row>
     <row r="311">
@@ -7896,13 +7896,13 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>644.768334</v>
       </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>42.2676014</v>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>-83.24240379999999</v>
       </c>
     </row>
     <row r="312">
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>3718.207073</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>33.9205963</v>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>-118.3914439</v>
       </c>
     </row>
     <row r="313">
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>76.752245</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>39.520345</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>-76.65040639999999</v>
       </c>
     </row>
     <row r="314">
@@ -7968,13 +7968,13 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>981.596464</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>41.8364011</v>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>-87.94699179999999</v>
       </c>
     </row>
     <row r="315">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>327.673411</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>40.7033782</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>-74.009675</v>
       </c>
     </row>
     <row r="316">
@@ -8016,13 +8016,13 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>3926.401717</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>37.7887655</v>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>-122.4027468</v>
       </c>
     </row>
     <row r="317">
@@ -8040,13 +8040,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>5457.245809</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>53.3336406</v>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>-6.257194399999999</v>
       </c>
     </row>
     <row r="318">
@@ -8064,13 +8064,13 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>583.285444</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>41.9915294</v>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>-71.47724719999999</v>
       </c>
     </row>
     <row r="319">
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>3796.118507</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>45.3188267</v>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>-122.7626244</v>
       </c>
     </row>
     <row r="320">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>308.369669</v>
       </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>40.6774305</v>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>-74.2723554</v>
       </c>
     </row>
     <row r="321">
@@ -8136,13 +8136,13 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>1441.48769</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>41.5834196</v>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>-93.63923799999999</v>
       </c>
     </row>
     <row r="322">
@@ -8160,13 +8160,13 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>974.831646</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>41.9628739</v>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>-87.8124459</v>
       </c>
     </row>
     <row r="323">
@@ -8184,13 +8184,13 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>3289.32042</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>43.5305808</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>-116.1498385</v>
       </c>
     </row>
     <row r="324">
@@ -8208,13 +8208,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>3674.377134</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>33.5811043</v>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>-117.7293578</v>
       </c>
     </row>
     <row r="325">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1553.482804</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>29.9489612</v>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>-90.07683019999999</v>
       </c>
     </row>
     <row r="326">
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>871.069069</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>42.8154441</v>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>-85.9960504</v>
       </c>
     </row>
     <row r="327">
@@ -8280,13 +8280,13 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>327.473767</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>40.6756025</v>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>-80.0873646</v>
       </c>
     </row>
     <row r="328">
@@ -8304,13 +8304,13 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>1482.116497</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>44.9594532</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>-93.0040589</v>
       </c>
     </row>
     <row r="329">
@@ -8328,13 +8328,13 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>1507.142722</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>46.7860464</v>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>-92.098798</v>
       </c>
     </row>
     <row r="330">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>453.798647</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>42.8050971</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>-78.61277509999999</v>
       </c>
     </row>
     <row r="331">
@@ -8376,13 +8376,13 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>706.420667</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>35.7545657</v>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>-83.97135159999999</v>
       </c>
     </row>
     <row r="332">
@@ -8400,13 +8400,13 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>996.893734</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>42.0663028</v>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>-88.04863979999999</v>
       </c>
     </row>
     <row r="333">
@@ -8424,13 +8424,13 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>1539.912453</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>33.2143298</v>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>-92.66232459999999</v>
       </c>
     </row>
     <row r="334">
@@ -8448,13 +8448,13 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>451.878387</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>41.0517317</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>-81.52587079999999</v>
       </c>
     </row>
     <row r="335">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>5897.367523</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>51.7682266</v>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>-0.2358244</v>
       </c>
     </row>
     <row r="336">
@@ -8496,13 +8496,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>529.4829099999999</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>35.2274955</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>-80.84232299999999</v>
       </c>
     </row>
     <row r="337">
@@ -8520,13 +8520,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>3896.891235</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>37.4081915</v>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>-121.9135317</v>
       </c>
     </row>
     <row r="338">
@@ -8544,13 +8544,13 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>473.182785</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>42.9643796</v>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>-78.714443</v>
       </c>
     </row>
     <row r="339">
@@ -8568,13 +8568,13 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1905.324754</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>32.7848396</v>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>-96.80269849999999</v>
       </c>
     </row>
     <row r="340">
@@ -8592,13 +8592,13 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>1364.899465</v>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>44.8593333</v>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>-91.4541292</v>
       </c>
     </row>
     <row r="341">
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>289.306767</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>40.2104119</v>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>-74.128457</v>
       </c>
     </row>
     <row r="342">
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>332.515254</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>40.756105</v>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>-73.9901921</v>
       </c>
     </row>
     <row r="343">
@@ -8664,13 +8664,13 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>856.586577</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>33.9352267</v>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>-84.3600737</v>
       </c>
     </row>
     <row r="344">
@@ -8688,13 +8688,13 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>2396.184914</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>39.6006238</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>-104.8923492</v>
       </c>
     </row>
     <row r="345">
@@ -8712,13 +8712,13 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>1944.610766</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>30.170439</v>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>-95.476416</v>
       </c>
     </row>
     <row r="346">
@@ -8736,13 +8736,13 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>3679.304531</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>33.7009868</v>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>-117.8415103</v>
       </c>
     </row>
     <row r="347">
@@ -8760,13 +8760,13 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>3798.980996</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>45.5070222</v>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>-122.8254766</v>
       </c>
     </row>
     <row r="348">
@@ -8784,13 +8784,13 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>1964.046017</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>29.9948551</v>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>-95.5812153</v>
       </c>
     </row>
     <row r="349">
@@ -8808,13 +8808,13 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>505.670522</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>41.4684798</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>-81.9394157</v>
       </c>
     </row>
     <row r="350">
@@ -8832,13 +8832,13 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>3746.241511</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>47.61264389999999</v>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>-122.3360309</v>
       </c>
     </row>
     <row r="351">
@@ -8856,13 +8856,13 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>237.080892</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>36.8456104</v>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>-76.2885781</v>
       </c>
     </row>
     <row r="352">
@@ -8880,13 +8880,13 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>341.925481</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>40.9626942</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>-74.06849629999999</v>
       </c>
     </row>
     <row r="353">
@@ -8904,13 +8904,13 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>524.4893029999999</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>42.1513093</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>-72.5472869</v>
       </c>
     </row>
     <row r="354">
@@ -8928,13 +8928,13 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>920.700024</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>41.4614637</v>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>-87.32544969999999</v>
       </c>
     </row>
     <row r="355">
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>1502.519933</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>44.97957539999999</v>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>-93.2705091</v>
       </c>
     </row>
     <row r="356">
@@ -8976,13 +8976,13 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>957.963427</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>41.88114840000001</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>-87.63305869999999</v>
       </c>
     </row>
     <row r="357">
@@ -9000,13 +9000,13 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>15.914886</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>38.8677505</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>-77.2159054</v>
       </c>
     </row>
     <row r="358">
@@ -9024,13 +9024,13 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>401.606114</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>41.1228346</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>-73.3273007</v>
       </c>
     </row>
     <row r="359">
@@ -9048,13 +9048,13 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>3786.849829</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>45.52491939999999</v>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>-122.6719341</v>
       </c>
     </row>
     <row r="360">
@@ -9072,13 +9072,13 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>1726.460218</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>43.490267</v>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>-96.75843379999999</v>
       </c>
     </row>
     <row r="361">
@@ -9096,13 +9096,13 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>3926.247649</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>37.7933827</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>-122.4026176</v>
       </c>
     </row>
     <row r="362">
@@ -9120,13 +9120,13 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>535.049675</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>35.1587199</v>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>-80.83488109999999</v>
       </c>
     </row>
     <row r="363">
@@ -9144,13 +9144,13 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>1969.898129</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>29.7311628</v>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>-95.43943809999999</v>
       </c>
     </row>
     <row r="364">
@@ -9168,13 +9168,13 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>1972.031824</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>29.8793825</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>-95.5887247</v>
       </c>
     </row>
     <row r="365">
@@ -9192,13 +9192,13 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>1978.547305</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>29.7426921</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>-95.55934889999999</v>
       </c>
     </row>
     <row r="366">
@@ -9216,13 +9216,13 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>453.105401</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>41.0832819</v>
       </c>
       <c r="F366" t="n">
-        <v>0</v>
+        <v>-81.51809129999999</v>
       </c>
     </row>
     <row r="367">
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>1853.817534</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>35.4707055</v>
       </c>
       <c r="F367" t="n">
-        <v>0</v>
+        <v>-97.51808249999999</v>
       </c>
     </row>
     <row r="368">
@@ -9264,13 +9264,13 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>1154.834138</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>38.64790780000001</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>-90.3332745</v>
       </c>
     </row>
     <row r="369">
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>1699.846944</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>36.1505651</v>
       </c>
       <c r="F369" t="n">
-        <v>0</v>
+        <v>-95.9916855</v>
       </c>
     </row>
     <row r="370">
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>142.866049</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>37.64449159999999</v>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>-77.40866679999999</v>
       </c>
     </row>
     <row r="371">
@@ -9336,13 +9336,13 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>633.698091</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>41.5252528</v>
       </c>
       <c r="F371" t="n">
-        <v>0</v>
+        <v>-83.6478706</v>
       </c>
     </row>
     <row r="372">
@@ -9360,13 +9360,13 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>869.743601</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>33.7811055</v>
       </c>
       <c r="F372" t="n">
-        <v>0</v>
+        <v>-84.3836915</v>
       </c>
     </row>
     <row r="373">
@@ -9384,13 +9384,13 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>306.647579</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>40.4412855</v>
       </c>
       <c r="F373" t="n">
-        <v>0</v>
+        <v>-80.00047479999999</v>
       </c>
     </row>
     <row r="374">
@@ -9408,13 +9408,13 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>306.776456</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>40.4398819</v>
       </c>
       <c r="F374" t="n">
-        <v>0</v>
+        <v>-80.0034788</v>
       </c>
     </row>
     <row r="375">
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>3735.987368</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>47.61666169999999</v>
       </c>
       <c r="F375" t="n">
-        <v>0</v>
+        <v>-122.1997588</v>
       </c>
     </row>
     <row r="376">
@@ -9456,13 +9456,13 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>3925.71234</v>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>37.7916858</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>-122.3956663</v>
       </c>
     </row>
     <row r="377">
@@ -9480,13 +9480,13 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>3660.742749</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>32.7194813</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>-117.1633768</v>
       </c>
     </row>
     <row r="378">
@@ -9504,13 +9504,13 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>372.034643</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>40.784105</v>
       </c>
       <c r="F378" t="n">
-        <v>0</v>
+        <v>-73.4434741</v>
       </c>
     </row>
     <row r="379">
@@ -9528,13 +9528,13 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>475.148272</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>41.5065161</v>
       </c>
       <c r="F379" t="n">
-        <v>0</v>
+        <v>-81.4617677</v>
       </c>
     </row>
     <row r="380">
@@ -9552,13 +9552,13 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>1216.125967</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>28.5473518</v>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>-81.3793585</v>
       </c>
     </row>
     <row r="381">
@@ -9576,13 +9576,13 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>470.974461</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>43.1246731</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>-77.4905359</v>
       </c>
     </row>
     <row r="382">
@@ -9600,13 +9600,13 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>647.363012</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>39.0999861</v>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>-84.50706219999999</v>
       </c>
     </row>
     <row r="383">
@@ -9624,13 +9624,13 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>1893.361216</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>33.0821304</v>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>-96.83225259999999</v>
       </c>
     </row>
     <row r="384">
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>232.311493</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>40.6108129</v>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>-75.48001120000001</v>
       </c>
     </row>
     <row r="385">
@@ -9672,13 +9672,13 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>198.993946</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>39.9491188</v>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>-75.1648441</v>
       </c>
     </row>
     <row r="386">
@@ -9696,13 +9696,13 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>5701.276432</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>53.5255278</v>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>-2.3868345</v>
       </c>
     </row>
     <row r="387">
@@ -9720,13 +9720,13 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>201.604571</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>40.0059401</v>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>-75.1809853</v>
       </c>
     </row>
     <row r="388">
@@ -9744,13 +9744,13 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>371.293584</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>41.0344724</v>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>-73.6928681</v>
       </c>
     </row>
     <row r="389">
@@ -9768,13 +9768,13 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>2402.162709</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>39.7445579</v>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>-104.9851846</v>
       </c>
     </row>
     <row r="390">
@@ -9792,13 +9792,13 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>333.322432</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>40.7503185</v>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>-73.9724018</v>
       </c>
     </row>
     <row r="391">
@@ -9816,13 +9816,13 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>957.716381</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>41.8815134</v>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>-87.6298042</v>
       </c>
     </row>
     <row r="392">
@@ -9840,13 +9840,13 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>193.513582</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>40.0201917</v>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>-75.31630849999999</v>
       </c>
     </row>
     <row r="393">
@@ -9864,13 +9864,13 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>150.010871</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>37.6004285</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>-77.5169672</v>
       </c>
     </row>
     <row r="394">
@@ -9888,13 +9888,13 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>1980.02312</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>29.78872789999999</v>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>-95.61608249999999</v>
       </c>
     </row>
     <row r="395">
@@ -9912,13 +9912,13 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>332.557246</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>40.74913799999999</v>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>-73.98259329999999</v>
       </c>
     </row>
     <row r="396">
@@ -9936,13 +9936,13 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>535.952334</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>35.1517741</v>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>-80.84014830000001</v>
       </c>
     </row>
     <row r="397">
@@ -9960,13 +9960,13 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>471.154586</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>43.1386259</v>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>-77.19093100000001</v>
       </c>
     </row>
     <row r="398">
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>836.5123</v>
       </c>
       <c r="E398" t="n">
-        <v>0</v>
+        <v>34.09587</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>-84.24113899999999</v>
       </c>
     </row>
     <row r="399">
@@ -10008,13 +10008,13 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>1502.5962</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>44.9751981</v>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>-93.2739144</v>
       </c>
     </row>
     <row r="400">
@@ -10032,13 +10032,13 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>383.332348</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>41.0708536</v>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>-73.5484089</v>
       </c>
     </row>
     <row r="401">
@@ -10056,13 +10056,13 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>3920.843569</v>
       </c>
       <c r="E401" t="n">
-        <v>0</v>
+        <v>36.986426</v>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>-122.035315</v>
       </c>
     </row>
     <row r="402">
@@ -10080,13 +10080,13 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>3376.960054</v>
       </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>47.6560929</v>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>-117.4215285</v>
       </c>
     </row>
     <row r="403">
@@ -10104,13 +10104,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>1.134988</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>38.8991456</v>
       </c>
       <c r="F403" t="n">
-        <v>0</v>
+        <v>-77.02358219999999</v>
       </c>
     </row>
     <row r="404">
@@ -10128,13 +10128,13 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>1961.053138</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>29.6452308</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>-95.25425179999999</v>
       </c>
     </row>
     <row r="405">
@@ -10152,13 +10152,13 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>3787.30233</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>45.4892865</v>
       </c>
       <c r="F405" t="n">
-        <v>0</v>
+        <v>-122.6729881</v>
       </c>
     </row>
     <row r="406">
@@ -10176,13 +10176,13 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>647.271273</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>39.1030046</v>
       </c>
       <c r="F406" t="n">
-        <v>0</v>
+        <v>-84.50602550000001</v>
       </c>
     </row>
     <row r="407">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>2658.351369</v>
       </c>
       <c r="E407" t="n">
-        <v>0</v>
+        <v>35.082494</v>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>-106.6528481</v>
       </c>
     </row>
     <row r="408">
@@ -10224,13 +10224,13 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>319.367016</v>
       </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>40.737379</v>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>-74.16870279999999</v>
       </c>
     </row>
     <row r="409">
@@ -10248,13 +10248,13 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>863.683751</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>33.8481447</v>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>-84.36874469999999</v>
       </c>
     </row>
     <row r="410">
@@ -10272,13 +10272,13 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>199.152427</v>
       </c>
       <c r="E410" t="n">
-        <v>0</v>
+        <v>40.0743164</v>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>-75.2891343</v>
       </c>
     </row>
     <row r="411">
@@ -10296,13 +10296,13 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>3681.176918</v>
       </c>
       <c r="E411" t="n">
-        <v>0</v>
+        <v>33.6806395</v>
       </c>
       <c r="F411" t="n">
-        <v>0</v>
+        <v>-117.8537947</v>
       </c>
     </row>
     <row r="412">
@@ -10320,13 +10320,13 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>2971.016494</v>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>40.7618109</v>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>-111.8877639</v>
       </c>
     </row>
     <row r="413">
@@ -10344,13 +10344,13 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>1327.73157</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>27.8909886</v>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>-82.6688106</v>
       </c>
     </row>
     <row r="414">
@@ -10368,13 +10368,13 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>483.545892</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>41.2032958</v>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>-81.8454886</v>
       </c>
     </row>
     <row r="415">
@@ -10392,13 +10392,13 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>623.103688</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>42.4057975</v>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>-71.28268799999999</v>
       </c>
     </row>
     <row r="416">
@@ -10416,13 +10416,13 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>1088.943366</v>
       </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>42.4984104</v>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>-89.0363758</v>
       </c>
     </row>
     <row r="417">
@@ -10440,13 +10440,13 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>1504.342508</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>44.87329340000001</v>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>-93.3518799</v>
       </c>
     </row>
     <row r="418">
@@ -10464,13 +10464,13 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>1446.509994</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>26.1200646</v>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>-80.1441231</v>
       </c>
     </row>
     <row r="419">
@@ -10488,13 +10488,13 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>1022.540406</v>
       </c>
       <c r="E419" t="n">
-        <v>0</v>
+        <v>43.0188476</v>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>-87.91260249999999</v>
       </c>
     </row>
     <row r="420">
@@ -10512,13 +10512,13 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>544.117652</v>
       </c>
       <c r="E420" t="n">
-        <v>0</v>
+        <v>41.8409541</v>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>-71.9119671</v>
       </c>
     </row>
     <row r="421">
@@ -10536,13 +10536,13 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>865.980263</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>33.8161635</v>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>-84.3671841</v>
       </c>
     </row>
     <row r="422">
@@ -10560,13 +10560,13 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>3885.433884</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>37.710312</v>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>-121.889969</v>
       </c>
     </row>
     <row r="423">
@@ -10584,13 +10584,13 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>1971.241276</v>
       </c>
       <c r="E423" t="n">
-        <v>0</v>
+        <v>29.7371822</v>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>-95.4615888</v>
       </c>
     </row>
     <row r="424">
@@ -10608,13 +10608,13 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0</v>
+        <v>2403.336777</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>39.752116</v>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>-105.000141</v>
       </c>
     </row>
     <row r="425">
@@ -10632,13 +10632,13 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>1478.523473</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>25.8683927</v>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>-80.3850022</v>
       </c>
     </row>
     <row r="426">
@@ -10656,13 +10656,13 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0</v>
+        <v>194.269144</v>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>40.1414246</v>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>-75.4473028</v>
       </c>
     </row>
     <row r="427">
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>1491.420225</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>45.0126673</v>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>-93.10135</v>
       </c>
     </row>
     <row r="428">
@@ -10704,13 +10704,13 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>656.207834</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>33.9557774</v>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>-81.05890599999999</v>
       </c>
     </row>
     <row r="429">
@@ -10728,13 +10728,13 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>6178.515212</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>48.860135</v>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>2.3110074</v>
       </c>
     </row>
     <row r="430">
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>329.812973</v>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>40.7240463</v>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>-73.9983888</v>
       </c>
     </row>
     <row r="431">
@@ -10776,13 +10776,13 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>463.704836</v>
       </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>41.11090009999999</v>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>-81.6431497</v>
       </c>
     </row>
     <row r="432">
@@ -10800,13 +10800,13 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>541.393308</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>35.1320295</v>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>-80.9061694</v>
       </c>
     </row>
     <row r="433">
@@ -10824,13 +10824,13 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>3761.023985</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>34.2180997</v>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>-119.0210025</v>
       </c>
     </row>
     <row r="434">
@@ -10848,13 +10848,13 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>1963.864336</v>
       </c>
       <c r="E434" t="n">
-        <v>0</v>
+        <v>29.7606136</v>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>-95.38685919999999</v>
       </c>
     </row>
     <row r="435">
@@ -10872,13 +10872,13 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>490.278697</v>
       </c>
       <c r="E435" t="n">
-        <v>0</v>
+        <v>41.4973034</v>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>-81.6925425</v>
       </c>
     </row>
     <row r="436">
@@ -10896,13 +10896,13 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>1038.736707</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>43.1514819</v>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>-88.05162679999999</v>
       </c>
     </row>
     <row r="437">
@@ -10920,13 +10920,13 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>458.358141</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>40.8465718</v>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>-81.76075299999999</v>
       </c>
     </row>
     <row r="438">
@@ -10944,13 +10944,13 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>998.321309</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>42.5556718</v>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>-87.8438096</v>
       </c>
     </row>
     <row r="439">
@@ -10968,13 +10968,13 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>490.605464</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>41.5007595</v>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>-81.69412849999999</v>
       </c>
     </row>
     <row r="440">
@@ -10992,13 +10992,13 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>569.581851</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>34.38219</v>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>-80.0668508</v>
       </c>
     </row>
     <row r="441">
@@ -11016,13 +11016,13 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>205.335838</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>39.6044781</v>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>-74.83819369999999</v>
       </c>
     </row>
     <row r="442">
@@ -11040,13 +11040,13 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>2223.106034</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>29.5151112</v>
       </c>
       <c r="F442" t="n">
-        <v>0</v>
+        <v>-98.4489947</v>
       </c>
     </row>
     <row r="443">
@@ -11064,13 +11064,13 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>3686.134159</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>34.0539466</v>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>-118.0808098</v>
       </c>
     </row>
     <row r="444">
@@ -11088,13 +11088,13 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>3658.85759</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>34.1220822</v>
       </c>
       <c r="F444" t="n">
-        <v>0</v>
+        <v>-117.795913</v>
       </c>
     </row>
     <row r="445">
@@ -11112,13 +11112,13 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>871.3226519999999</v>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>33.764322</v>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>-84.38828959999999</v>
       </c>
     </row>
     <row r="446">
@@ -11136,13 +11136,13 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>1907.333084</v>
       </c>
       <c r="E446" t="n">
-        <v>0</v>
+        <v>32.84540700000001</v>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>-96.86211329999999</v>
       </c>
     </row>
     <row r="447">
@@ -11160,13 +11160,13 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>3364.710756</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>36.1252026</v>
       </c>
       <c r="F447" t="n">
-        <v>0</v>
+        <v>-115.2134629</v>
       </c>
     </row>
     <row r="448">
@@ -11184,13 +11184,13 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>1905.266943</v>
       </c>
       <c r="E448" t="n">
-        <v>0</v>
+        <v>32.7795587</v>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>-96.79890039999999</v>
       </c>
     </row>
     <row r="449">
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>1946.069909</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>30.097996</v>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>-95.4367082</v>
       </c>
     </row>
     <row r="450">
@@ -11232,13 +11232,13 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>336.602245</v>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>40.7519244</v>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
+        <v>-73.92541919999999</v>
       </c>
     </row>
     <row r="451">
@@ -11256,13 +11256,13 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>3672.294307</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>33.6603073</v>
       </c>
       <c r="F451" t="n">
-        <v>0</v>
+        <v>-117.7418271</v>
       </c>
     </row>
     <row r="452">
@@ -11280,13 +11280,13 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>650.7590740000001</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>42.7732289</v>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>-71.24468349999999</v>
       </c>
     </row>
     <row r="453">
@@ -11304,13 +11304,13 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>474.919513</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>41.6936214</v>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>-72.8078946</v>
       </c>
     </row>
     <row r="454">
@@ -11328,13 +11328,13 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>634.556924</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>42.3531607</v>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>-71.0592497</v>
       </c>
     </row>
     <row r="455">
@@ -11352,13 +11352,13 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>975.106991</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>42.0912808</v>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>-87.7622616</v>
       </c>
     </row>
     <row r="456">
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>1970.672258</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>29.7462479</v>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>-95.4618498</v>
       </c>
     </row>
     <row r="457">
@@ -11400,13 +11400,13 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>3700.336687</v>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>34.1664274</v>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>-118.2955073</v>
       </c>
     </row>
     <row r="458">
@@ -11424,13 +11424,13 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>810.8487270000001</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>42.2428207</v>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>-85.55533969999999</v>
       </c>
     </row>
     <row r="459">
@@ -11448,13 +11448,13 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0</v>
+        <v>157.944079</v>
       </c>
       <c r="E459" t="n">
-        <v>0</v>
+        <v>39.7384665</v>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>-75.55905629999999</v>
       </c>
     </row>
     <row r="460">
@@ -11472,13 +11472,13 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>406.196187</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>41.1400979</v>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>-73.2761493</v>
       </c>
     </row>
     <row r="461">
@@ -11496,13 +11496,13 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>871.328925</v>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>33.76295229999999</v>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>-84.3868564</v>
       </c>
     </row>
     <row r="462">
@@ -11520,13 +11520,13 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>1509.778922</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>44.8724943</v>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>-93.42570219999999</v>
       </c>
     </row>
     <row r="463">
@@ -11544,13 +11544,13 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>661.1175469999999</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>42.4781559</v>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>-83.2896473</v>
       </c>
     </row>
     <row r="464">
@@ -11568,13 +11568,13 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1982.260968</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>29.7583696</v>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>-95.61959329999999</v>
       </c>
     </row>
     <row r="465">
@@ -11592,13 +11592,13 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>1314.098975</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>27.9501677</v>
       </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>-82.45934319999999</v>
       </c>
     </row>
     <row r="466">
@@ -11616,13 +11616,13 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>306.785069</v>
       </c>
       <c r="E466" t="n">
-        <v>0</v>
+        <v>40.4395637</v>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>-80.0038699</v>
       </c>
     </row>
     <row r="467">
@@ -11640,13 +11640,13 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>191.147392</v>
       </c>
       <c r="E467" t="n">
-        <v>0</v>
+        <v>40.0772532</v>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>-75.4179604</v>
       </c>
     </row>
     <row r="468">
@@ -11664,13 +11664,13 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>332.328074</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>40.7482436</v>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>-73.9851073</v>
       </c>
     </row>
     <row r="469">
@@ -11688,13 +11688,13 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>1508.897684</v>
       </c>
       <c r="E469" t="n">
-        <v>0</v>
+        <v>44.9873618</v>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>-93.3529049</v>
       </c>
     </row>
     <row r="470">
@@ -11712,13 +11712,13 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>642.920975</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>42.55651599999999</v>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>-71.1343368</v>
       </c>
     </row>
     <row r="471">
@@ -11736,13 +11736,13 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0</v>
+        <v>2217.746301</v>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>29.6159513</v>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>-98.45895569999999</v>
       </c>
     </row>
     <row r="472">
@@ -11760,13 +11760,13 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>1894.981447</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>32.9119075</v>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>-96.7537705</v>
       </c>
     </row>
     <row r="473">
@@ -11784,13 +11784,13 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>577.8344509999999</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>41.8249048</v>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>-71.4092955</v>
       </c>
     </row>
     <row r="474">
@@ -11808,13 +11808,13 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>624.328437</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>42.3998795</v>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>-71.2581874</v>
       </c>
     </row>
     <row r="475">
@@ -11832,13 +11832,13 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0</v>
+        <v>819.932831</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>41.6927175</v>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>-85.9690081</v>
       </c>
     </row>
     <row r="476">
@@ -11856,13 +11856,13 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>1552.903636</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>29.949959</v>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>-90.06967670000002</v>
       </c>
     </row>
     <row r="477">
@@ -11880,13 +11880,13 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>437.033375</v>
       </c>
       <c r="E477" t="n">
-        <v>0</v>
+        <v>40.9058618</v>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>-81.43302129999999</v>
       </c>
     </row>
     <row r="478">
@@ -11904,13 +11904,13 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>962.72432</v>
       </c>
       <c r="E478" t="n">
-        <v>0</v>
+        <v>41.760327</v>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>-87.7397526</v>
       </c>
     </row>
     <row r="479">
@@ -11928,13 +11928,13 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>1880.347598</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>33.1717418</v>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>-96.7284935</v>
       </c>
     </row>
     <row r="480">
@@ -11952,13 +11952,13 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>1498.927861</v>
       </c>
       <c r="E480" t="n">
-        <v>0</v>
+        <v>44.8572504</v>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>-93.2871696</v>
       </c>
     </row>
     <row r="481">
@@ -11976,13 +11976,13 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>1012.317393</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>32.4751071</v>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>-84.99253280000001</v>
       </c>
     </row>
     <row r="482">
@@ -12000,13 +12000,13 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>1907.443357</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>32.8054205</v>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>-96.84003849999999</v>
       </c>
     </row>
     <row r="483">
@@ -12024,13 +12024,13 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>5351.458549</v>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>51.8865875</v>
       </c>
       <c r="F483" t="n">
-        <v>0</v>
+        <v>-8.405120799999999</v>
       </c>
     </row>
     <row r="484">
@@ -12048,13 +12048,13 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>1891.627625</v>
       </c>
       <c r="E484" t="n">
-        <v>0</v>
+        <v>33.0659086</v>
       </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>-96.80244669999999</v>
       </c>
     </row>
     <row r="485">
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>1541.070592</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>36.1546027</v>
       </c>
       <c r="F485" t="n">
-        <v>0</v>
+        <v>-94.15521539999999</v>
       </c>
     </row>
     <row r="486">
@@ -12096,13 +12096,13 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>958.142503</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>41.878474</v>
       </c>
       <c r="F486" t="n">
-        <v>0</v>
+        <v>-87.6363853</v>
       </c>
     </row>
     <row r="487">
@@ -12120,13 +12120,13 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>192.682374</v>
       </c>
       <c r="E487" t="n">
-        <v>0</v>
+        <v>40.0885655</v>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>-75.40706689999999</v>
       </c>
     </row>
     <row r="488">
@@ -12144,13 +12144,13 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>402.998953</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>36.0872866</v>
       </c>
       <c r="F488" t="n">
-        <v>0</v>
+        <v>-79.9229618</v>
       </c>
     </row>
     <row r="489">
@@ -12168,13 +12168,13 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>644.730741</v>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>42.5969</v>
       </c>
       <c r="F489" t="n">
-        <v>0</v>
+        <v>-71.1483793</v>
       </c>
     </row>
     <row r="490">
@@ -12192,13 +12192,13 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>1144.37303</v>
       </c>
       <c r="E490" t="n">
-        <v>0</v>
+        <v>38.6224792</v>
       </c>
       <c r="F490" t="n">
-        <v>0</v>
+        <v>-90.20937320000002</v>
       </c>
     </row>
     <row r="491">
@@ -12216,13 +12216,13 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>1629.79816</v>
       </c>
       <c r="E491" t="n">
-        <v>0</v>
+        <v>41.2589096</v>
       </c>
       <c r="F491" t="n">
-        <v>0</v>
+        <v>-95.9350867</v>
       </c>
     </row>
     <row r="492">
@@ -12240,13 +12240,13 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>1700.000614</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>36.0593629</v>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>-95.96083019999999</v>
       </c>
     </row>
     <row r="493">
@@ -12264,13 +12264,13 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>2406.792922</v>
       </c>
       <c r="E493" t="n">
-        <v>0</v>
+        <v>39.5549087</v>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>-105.0093536</v>
       </c>
     </row>
     <row r="494">
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>1509.057738</v>
       </c>
       <c r="E494" t="n">
-        <v>0</v>
+        <v>44.8969285</v>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>-93.40317450000001</v>
       </c>
     </row>
     <row r="495">
@@ -12312,13 +12312,13 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>1517.640454</v>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>39.10159</v>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>-94.58118159999999</v>
       </c>
     </row>
     <row r="496">
@@ -12336,13 +12336,13 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>855.99288</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>33.9433312</v>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>-84.360202</v>
       </c>
     </row>
     <row r="497">
@@ -12360,13 +12360,13 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>986.729547</v>
       </c>
       <c r="E497" t="n">
-        <v>0</v>
+        <v>42.16414280000001</v>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>-87.87840729999999</v>
       </c>
     </row>
     <row r="498">
@@ -12384,13 +12384,13 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>476.464485</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>41.7120748</v>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>-72.8041412</v>
       </c>
     </row>
     <row r="499">
@@ -12408,13 +12408,13 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>3367.802203</v>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>36.0684441</v>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>-115.2280173</v>
       </c>
     </row>
     <row r="500">
@@ -12432,13 +12432,13 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>1022.572057</v>
       </c>
       <c r="E500" t="n">
-        <v>0</v>
+        <v>43.0378115</v>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>-87.9020642</v>
       </c>
     </row>
     <row r="501">
@@ -12456,13 +12456,13 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>157.698704</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>37.5395812</v>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>-77.56525549999999</v>
       </c>
     </row>
     <row r="502">
@@ -12480,13 +12480,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>194.201463</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>40.0780566</v>
       </c>
       <c r="F502" t="n">
-        <v>0</v>
+        <v>-75.37049139999999</v>
       </c>
     </row>
     <row r="503">
@@ -12504,13 +12504,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>393.049303</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>36.122004</v>
       </c>
       <c r="F503" t="n">
-        <v>0</v>
+        <v>-79.79824169999999</v>
       </c>
     </row>
     <row r="504">
@@ -12528,13 +12528,13 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>1647.570234</v>
       </c>
       <c r="E504" t="n">
-        <v>0</v>
+        <v>41.26015659999999</v>
       </c>
       <c r="F504" t="n">
-        <v>0</v>
+        <v>-96.14734999999999</v>
       </c>
     </row>
     <row r="505">
@@ -12552,13 +12552,13 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0</v>
+        <v>1501.05559</v>
       </c>
       <c r="E505" t="n">
-        <v>0</v>
+        <v>44.9739692</v>
       </c>
       <c r="F505" t="n">
-        <v>0</v>
+        <v>-93.2536566</v>
       </c>
     </row>
     <row r="506">
@@ -12576,13 +12576,13 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>3916.100242</v>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>37.4163372</v>
       </c>
       <c r="F506" t="n">
-        <v>0</v>
+        <v>-122.1430254</v>
       </c>
     </row>
     <row r="507">
@@ -12600,13 +12600,13 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>370.95614</v>
       </c>
       <c r="E507" t="n">
-        <v>0</v>
+        <v>40.7922859</v>
       </c>
       <c r="F507" t="n">
-        <v>0</v>
+        <v>-73.46580659999999</v>
       </c>
     </row>
     <row r="508">
@@ -12624,13 +12624,13 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>181.794973</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>40.0441605</v>
       </c>
       <c r="F508" t="n">
-        <v>0</v>
+        <v>-75.5280339</v>
       </c>
     </row>
     <row r="509">
@@ -12648,13 +12648,13 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>333.774426</v>
       </c>
       <c r="E509" t="n">
-        <v>0</v>
+        <v>40.76548630000001</v>
       </c>
       <c r="F509" t="n">
-        <v>0</v>
+        <v>-73.9808532</v>
       </c>
     </row>
     <row r="510">
@@ -12672,13 +12672,13 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1055.954042</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>33.482953</v>
       </c>
       <c r="F510" t="n">
-        <v>0</v>
+        <v>-86.704047</v>
       </c>
     </row>
     <row r="511">
@@ -12696,13 +12696,13 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>3661.974824</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>32.7668567</v>
       </c>
       <c r="F511" t="n">
-        <v>0</v>
+        <v>-117.2005933</v>
       </c>
     </row>
     <row r="512">
@@ -12720,13 +12720,13 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>1539.972629</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>36.3652654</v>
       </c>
       <c r="F512" t="n">
-        <v>0</v>
+        <v>-94.2176381</v>
       </c>
     </row>
     <row r="513">
@@ -12744,13 +12744,13 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>985.684202</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>42.1555253</v>
       </c>
       <c r="F513" t="n">
-        <v>0</v>
+        <v>-87.86886179999999</v>
       </c>
     </row>
     <row r="514">
@@ -12768,13 +12768,13 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>2.110931</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>38.8928495</v>
       </c>
       <c r="F514" t="n">
-        <v>0</v>
+        <v>-77.01299440000001</v>
       </c>
     </row>
     <row r="515">
@@ -12792,13 +12792,13 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>3.160569</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>38.8936771</v>
       </c>
       <c r="F515" t="n">
-        <v>0</v>
+        <v>-77.0726002</v>
       </c>
     </row>
     <row r="516">
@@ -12816,13 +12816,13 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>3374.552193</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>47.6735643</v>
       </c>
       <c r="F516" t="n">
-        <v>0</v>
+        <v>-117.3886888</v>
       </c>
     </row>
     <row r="517">
@@ -12840,13 +12840,13 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>1490.642092</v>
       </c>
       <c r="E517" t="n">
-        <v>0</v>
+        <v>25.7303942</v>
       </c>
       <c r="F517" t="n">
-        <v>0</v>
+        <v>-80.23606599999999</v>
       </c>
     </row>
     <row r="518">
@@ -12864,13 +12864,13 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>1235.57702</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>44.8136328</v>
       </c>
       <c r="F518" t="n">
-        <v>0</v>
+        <v>-89.66824799999999</v>
       </c>
     </row>
     <row r="519">
@@ -12888,13 +12888,13 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>1964.492609</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>29.80994089999999</v>
       </c>
       <c r="F519" t="n">
-        <v>0</v>
+        <v>-95.4357509</v>
       </c>
     </row>
     <row r="520">
@@ -12912,13 +12912,13 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>174.083684</v>
       </c>
       <c r="E520" t="n">
-        <v>0</v>
+        <v>40.061479</v>
       </c>
       <c r="F520" t="n">
-        <v>0</v>
+        <v>-75.68053569999999</v>
       </c>
     </row>
     <row r="521">
@@ -12936,13 +12936,13 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>3680.362644</v>
       </c>
       <c r="E521" t="n">
-        <v>0</v>
+        <v>33.672995</v>
       </c>
       <c r="F521" t="n">
-        <v>0</v>
+        <v>-117.8408722</v>
       </c>
     </row>
     <row r="522">
@@ -12960,13 +12960,13 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>3744.830495</v>
       </c>
       <c r="E522" t="n">
-        <v>0</v>
+        <v>47.2968716</v>
       </c>
       <c r="F522" t="n">
-        <v>0</v>
+        <v>-122.2991023</v>
       </c>
     </row>
     <row r="523">
@@ -12984,13 +12984,13 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>874.412108</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>42.1498907</v>
       </c>
       <c r="F523" t="n">
-        <v>0</v>
+        <v>-86.4428478</v>
       </c>
     </row>
     <row r="524">
@@ -13008,13 +13008,13 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>328.686121</v>
       </c>
       <c r="E524" t="n">
-        <v>0</v>
+        <v>40.7373992</v>
       </c>
       <c r="F524" t="n">
-        <v>0</v>
+        <v>-74.02845959999999</v>
       </c>
     </row>
     <row r="525">
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0</v>
+        <v>1699.612373</v>
       </c>
       <c r="E525" t="n">
-        <v>0</v>
+        <v>36.1549519</v>
       </c>
       <c r="F525" t="n">
-        <v>0</v>
+        <v>-95.9905266</v>
       </c>
     </row>
     <row r="526">
@@ -13056,13 +13056,13 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>3927.758069</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>37.8062468</v>
       </c>
       <c r="F526" t="n">
-        <v>0</v>
+        <v>-122.4251912</v>
       </c>
     </row>
     <row r="527">
@@ -13080,13 +13080,13 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>1485.040622</v>
       </c>
       <c r="E527" t="n">
-        <v>0</v>
+        <v>43.2232917</v>
       </c>
       <c r="F527" t="n">
-        <v>0</v>
+        <v>-93.7924434</v>
       </c>
     </row>
     <row r="528">
@@ -13104,13 +13104,13 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>1023.41541</v>
       </c>
       <c r="E528" t="n">
-        <v>0</v>
+        <v>43.0371135</v>
       </c>
       <c r="F528" t="n">
-        <v>0</v>
+        <v>-87.9137137</v>
       </c>
     </row>
     <row r="529">
@@ -13128,13 +13128,13 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>1132.638404</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>43.1512115</v>
       </c>
       <c r="F529" t="n">
-        <v>0</v>
+        <v>-89.2958529</v>
       </c>
     </row>
     <row r="530">
@@ -13152,13 +13152,13 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>855.729514</v>
       </c>
       <c r="E530" t="n">
-        <v>0</v>
+        <v>43.1357063</v>
       </c>
       <c r="F530" t="n">
-        <v>0</v>
+        <v>-85.5427626</v>
       </c>
     </row>
     <row r="531">
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>2399.475623</v>
       </c>
       <c r="E531" t="n">
-        <v>0</v>
+        <v>40.554537</v>
       </c>
       <c r="F531" t="n">
-        <v>0</v>
+        <v>-105.0601937</v>
       </c>
     </row>
     <row r="532">
@@ -13200,13 +13200,13 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>0</v>
+        <v>332.192836</v>
       </c>
       <c r="E532" t="n">
-        <v>0</v>
+        <v>40.7498313</v>
       </c>
       <c r="F532" t="n">
-        <v>0</v>
+        <v>-73.98870479999999</v>
       </c>
     </row>
     <row r="533">
@@ -13224,13 +13224,13 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>531.952256</v>
       </c>
       <c r="E533" t="n">
-        <v>0</v>
+        <v>40.1109975</v>
       </c>
       <c r="F533" t="n">
-        <v>0</v>
+        <v>-83.0212835</v>
       </c>
     </row>
     <row r="534">
@@ -13248,13 +13248,13 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>396.217656</v>
       </c>
       <c r="E534" t="n">
-        <v>0</v>
+        <v>41.1445918</v>
       </c>
       <c r="F534" t="n">
-        <v>0</v>
+        <v>-73.42989729999999</v>
       </c>
     </row>
     <row r="535">
@@ -13272,13 +13272,13 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>610.187823</v>
       </c>
       <c r="E535" t="n">
-        <v>0</v>
+        <v>42.310837</v>
       </c>
       <c r="F535" t="n">
-        <v>0</v>
+        <v>-71.38283919999999</v>
       </c>
     </row>
     <row r="536">
@@ -13296,13 +13296,13 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>2971.695421</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>40.7343034</v>
       </c>
       <c r="F536" t="n">
-        <v>0</v>
+        <v>-111.8910781</v>
       </c>
     </row>
     <row r="537">
@@ -13320,13 +13320,13 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>1115.760318</v>
       </c>
       <c r="E537" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F537" t="n">
-        <v>0</v>
+        <v>-88.56</v>
       </c>
     </row>
     <row r="538">
@@ -13344,13 +13344,13 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>7784.381104</v>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>21.3079324</v>
       </c>
       <c r="F538" t="n">
-        <v>0</v>
+        <v>-157.8625906</v>
       </c>
     </row>
     <row r="539">
@@ -13368,13 +13368,13 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>1142.520681</v>
       </c>
       <c r="E539" t="n">
-        <v>0</v>
+        <v>38.62968499999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0</v>
+        <v>-90.18890449999999</v>
       </c>
     </row>
     <row r="540">
@@ -13392,13 +13392,13 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>817.138198</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>41.7236612</v>
       </c>
       <c r="F540" t="n">
-        <v>0</v>
+        <v>-85.9187951</v>
       </c>
     </row>
     <row r="541">
@@ -13416,13 +13416,13 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>1500.451362</v>
       </c>
       <c r="E541" t="n">
-        <v>0</v>
+        <v>36.914114</v>
       </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>-93.9388269</v>
       </c>
     </row>
     <row r="542">
@@ -13440,13 +13440,13 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>1104.657575</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>44.517726</v>
       </c>
       <c r="F542" t="n">
-        <v>0</v>
+        <v>-88.009331</v>
       </c>
     </row>
     <row r="543">
@@ -13464,13 +13464,13 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>420.911384</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>36.0956772</v>
       </c>
       <c r="F543" t="n">
-        <v>0</v>
+        <v>-80.24515699999999</v>
       </c>
     </row>
     <row r="544">
@@ -13488,13 +13488,13 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>332.099749</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>40.9629545</v>
       </c>
       <c r="F544" t="n">
-        <v>0</v>
+        <v>-74.2257279</v>
       </c>
     </row>
     <row r="545">
@@ -13512,13 +13512,13 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>991.850284</v>
       </c>
       <c r="E545" t="n">
-        <v>0</v>
+        <v>41.9878883</v>
       </c>
       <c r="F545" t="n">
-        <v>0</v>
+        <v>-88.01677699999999</v>
       </c>
     </row>
     <row r="546">
@@ -13536,13 +13536,13 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>1943.429039</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>30.1609411</v>
       </c>
       <c r="F546" t="n">
-        <v>0</v>
+        <v>-95.45386739999999</v>
       </c>
     </row>
     <row r="547">
@@ -13560,13 +13560,13 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>5912.63369</v>
       </c>
       <c r="E547" t="n">
-        <v>0</v>
+        <v>51.5064308</v>
       </c>
       <c r="F547" t="n">
-        <v>0</v>
+        <v>-0.1431173</v>
       </c>
     </row>
     <row r="548">
@@ -13584,13 +13584,13 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>1898.118507</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>32.9238357</v>
       </c>
       <c r="F548" t="n">
-        <v>0</v>
+        <v>-96.7980213</v>
       </c>
     </row>
     <row r="549">
@@ -13608,13 +13608,13 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>591.671926</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>42.1936376</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>-71.54526100000001</v>
       </c>
     </row>
     <row r="550">
@@ -13632,13 +13632,13 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>535.529659</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>39.9594382</v>
       </c>
       <c r="F550" t="n">
-        <v>0</v>
+        <v>-83.10513999999999</v>
       </c>
     </row>
     <row r="551">
@@ -13656,13 +13656,13 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>333.094192</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>40.7600547</v>
       </c>
       <c r="F551" t="n">
-        <v>0</v>
+        <v>-73.9855324</v>
       </c>
     </row>
     <row r="552">
@@ -13680,13 +13680,13 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>56.686185</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>39.2871714</v>
       </c>
       <c r="F552" t="n">
-        <v>0</v>
+        <v>-76.61283969999999</v>
       </c>
     </row>
     <row r="553">
@@ -13704,13 +13704,13 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>1217.18419</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>28.537234</v>
       </c>
       <c r="F553" t="n">
-        <v>0</v>
+        <v>-81.37911489999999</v>
       </c>
     </row>
     <row r="554">
@@ -13728,13 +13728,13 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>0</v>
+        <v>3730.695249</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>47.6435401</v>
       </c>
       <c r="F554" t="n">
-        <v>0</v>
+        <v>-122.1306046</v>
       </c>
     </row>
     <row r="555">
@@ -13752,13 +13752,13 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>3922.597525</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>37.53070520000001</v>
       </c>
       <c r="F555" t="n">
-        <v>0</v>
+        <v>-122.26242</v>
       </c>
     </row>
     <row r="556">
@@ -13776,13 +13776,13 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>0</v>
+        <v>1326.469703</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>27.917127</v>
       </c>
       <c r="F556" t="n">
-        <v>0</v>
+        <v>-82.707835</v>
       </c>
     </row>
     <row r="557">
@@ -13800,13 +13800,13 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>0</v>
+        <v>625.254912</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>42.3708599</v>
       </c>
       <c r="F557" t="n">
-        <v>0</v>
+        <v>-71.2153861</v>
       </c>
     </row>
     <row r="558">
@@ -13824,13 +13824,13 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>3899.965272</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>37.4103081</v>
       </c>
       <c r="F558" t="n">
-        <v>0</v>
+        <v>-121.9505551</v>
       </c>
     </row>
     <row r="559">
@@ -13848,13 +13848,13 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>0</v>
+        <v>3897.233873</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>37.4064253</v>
       </c>
       <c r="F559" t="n">
-        <v>0</v>
+        <v>-121.9169101</v>
       </c>
     </row>
     <row r="560">
@@ -13872,13 +13872,13 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>0</v>
+        <v>842.582598</v>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>35.0372851</v>
       </c>
       <c r="F560" t="n">
-        <v>0</v>
+        <v>-85.19077209999999</v>
       </c>
     </row>
     <row r="561">
@@ -13896,13 +13896,13 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>1646.555344</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>41.1579896</v>
       </c>
       <c r="F561" t="n">
-        <v>0</v>
+        <v>-96.1415689</v>
       </c>
     </row>
     <row r="562">
@@ -13920,13 +13920,13 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>102.550595</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>39.1346149</v>
       </c>
       <c r="F562" t="n">
-        <v>0</v>
+        <v>-78.1810211</v>
       </c>
     </row>
     <row r="563">
@@ -13944,13 +13944,13 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>1027.29832</v>
       </c>
       <c r="E563" t="n">
-        <v>0</v>
+        <v>43.0460547</v>
       </c>
       <c r="F563" t="n">
-        <v>0</v>
+        <v>-87.9603032</v>
       </c>
     </row>
     <row r="564">
@@ -13968,13 +13968,13 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>3192.46669</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>37.100849</v>
       </c>
       <c r="F564" t="n">
-        <v>0</v>
+        <v>-113.5565748</v>
       </c>
     </row>
     <row r="565">
@@ -13992,13 +13992,13 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>0</v>
+        <v>216.324244</v>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>40.1746577</v>
       </c>
       <c r="F565" t="n">
-        <v>0</v>
+        <v>-75.1358396</v>
       </c>
     </row>
     <row r="566">
@@ -14016,13 +14016,13 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>1224.742955</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>35.0311886</v>
       </c>
       <c r="F566" t="n">
-        <v>0</v>
+        <v>-89.9342896</v>
       </c>
     </row>
     <row r="567">
@@ -14040,13 +14040,13 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>0</v>
+        <v>34.068457</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>38.9012417</v>
       </c>
       <c r="F567" t="n">
-        <v>0</v>
+        <v>-77.4292287</v>
       </c>
     </row>
     <row r="568">
@@ -14064,13 +14064,13 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>634.3959160000001</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>39.1238896</v>
       </c>
       <c r="F568" t="n">
-        <v>0</v>
+        <v>-84.3572446</v>
       </c>
     </row>
     <row r="569">
@@ -14088,13 +14088,13 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>380.469751</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>41.0304821</v>
       </c>
       <c r="F569" t="n">
-        <v>0</v>
+        <v>-73.5503025</v>
       </c>
     </row>
     <row r="570">
@@ -14112,13 +14112,13 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>651.61132</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>42.65669580000001</v>
       </c>
       <c r="F570" t="n">
-        <v>0</v>
+        <v>-71.1049768</v>
       </c>
     </row>
     <row r="571">
@@ -14136,13 +14136,13 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>0</v>
+        <v>27.854101</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>38.9526486</v>
       </c>
       <c r="F571" t="n">
-        <v>0</v>
+        <v>-77.34993060000001</v>
       </c>
     </row>
     <row r="572">
@@ -14160,13 +14160,13 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>1484.226128</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>25.8105331</v>
       </c>
       <c r="F572" t="n">
-        <v>0</v>
+        <v>-80.35552299999999</v>
       </c>
     </row>
     <row r="573">
@@ -14184,13 +14184,13 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>367.023723</v>
       </c>
       <c r="E573" t="n">
-        <v>0</v>
+        <v>40.7613355</v>
       </c>
       <c r="F573" t="n">
-        <v>0</v>
+        <v>-73.4948041</v>
       </c>
     </row>
     <row r="574">
@@ -14208,13 +14208,13 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>3897.702788</v>
       </c>
       <c r="E574" t="n">
-        <v>0</v>
+        <v>37.3305454</v>
       </c>
       <c r="F574" t="n">
-        <v>0</v>
+        <v>-121.8940054</v>
       </c>
     </row>
     <row r="575">
@@ -14232,13 +14232,13 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
+        <v>2225.234116</v>
       </c>
       <c r="E575" t="n">
-        <v>0</v>
+        <v>29.5276491</v>
       </c>
       <c r="F575" t="n">
-        <v>0</v>
+        <v>-98.4848489</v>
       </c>
     </row>
     <row r="576">
@@ -14256,13 +14256,13 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>520.738565</v>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>40.0466043</v>
       </c>
       <c r="F576" t="n">
-        <v>0</v>
+        <v>-82.9052312</v>
       </c>
     </row>
     <row r="577">
@@ -14280,13 +14280,13 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>1366.931593</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>44.5690376</v>
       </c>
       <c r="F577" t="n">
-        <v>0</v>
+        <v>-91.65625829999999</v>
       </c>
     </row>
     <row r="578">
@@ -14304,13 +14304,13 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>1040.325929</v>
       </c>
       <c r="E578" t="n">
-        <v>0</v>
+        <v>43.0334751</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>-88.14076349999999</v>
       </c>
     </row>
     <row r="579">
@@ -14328,13 +14328,13 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>3717.664463</v>
       </c>
       <c r="E579" t="n">
-        <v>0</v>
+        <v>34.0575438</v>
       </c>
       <c r="F579" t="n">
-        <v>0</v>
+        <v>-118.4471134</v>
       </c>
     </row>
     <row r="580">
@@ -14352,13 +14352,13 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>850.699901</v>
       </c>
       <c r="E580" t="n">
-        <v>0</v>
+        <v>35.0504844</v>
       </c>
       <c r="F580" t="n">
-        <v>0</v>
+        <v>-85.3068744</v>
       </c>
     </row>
     <row r="581">
@@ -14376,13 +14376,13 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>865.462487</v>
       </c>
       <c r="E581" t="n">
-        <v>0</v>
+        <v>33.9049622</v>
       </c>
       <c r="F581" t="n">
-        <v>0</v>
+        <v>-84.45656369999999</v>
       </c>
     </row>
     <row r="582">
@@ -14400,13 +14400,13 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>382.506338</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>41.04979609999999</v>
       </c>
       <c r="F582" t="n">
-        <v>0</v>
+        <v>-73.53932829999999</v>
       </c>
     </row>
     <row r="583">
@@ -14424,13 +14424,13 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>3673.522791</v>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>33.6506608</v>
       </c>
       <c r="F583" t="n">
-        <v>0</v>
+        <v>-117.7515789</v>
       </c>
     </row>
     <row r="584">
@@ -14448,13 +14448,13 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
+        <v>204.593266</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>39.9314107</v>
       </c>
       <c r="F584" t="n">
-        <v>0</v>
+        <v>-75.06969289999999</v>
       </c>
     </row>
     <row r="585">
@@ -14472,13 +14472,13 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>1279.306118</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>41.7577674</v>
       </c>
       <c r="F585" t="n">
-        <v>0</v>
+        <v>-91.64017339999999</v>
       </c>
     </row>
     <row r="586">
@@ -14496,13 +14496,13 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>1514.172042</v>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>39.14986409999999</v>
       </c>
       <c r="F586" t="n">
-        <v>0</v>
+        <v>-94.5459231</v>
       </c>
     </row>
     <row r="587">
@@ -14520,13 +14520,13 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>333.218624</v>
       </c>
       <c r="E587" t="n">
-        <v>0</v>
+        <v>40.7584969</v>
       </c>
       <c r="F587" t="n">
-        <v>0</v>
+        <v>-73.9821147</v>
       </c>
     </row>
     <row r="588">
@@ -14544,13 +14544,13 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>1118.464278</v>
       </c>
       <c r="E588" t="n">
-        <v>0</v>
+        <v>44.1883284</v>
       </c>
       <c r="F588" t="n">
-        <v>0</v>
+        <v>-88.4639135</v>
       </c>
     </row>
     <row r="589">
@@ -14568,13 +14568,13 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>192.177055</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>40.0415552</v>
       </c>
       <c r="F589" t="n">
-        <v>0</v>
+        <v>-75.360275</v>
       </c>
     </row>
     <row r="590">
@@ -14592,13 +14592,13 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>0</v>
+        <v>1023.183661</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>43.0389389</v>
       </c>
       <c r="F590" t="n">
-        <v>0</v>
+        <v>-87.90956629999999</v>
       </c>
     </row>
     <row r="591">
@@ -14616,13 +14616,13 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>1952.483165</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>32.7513958</v>
       </c>
       <c r="F591" t="n">
-        <v>0</v>
+        <v>-97.3445636</v>
       </c>
     </row>
     <row r="592">
@@ -14640,13 +14640,13 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>1013.134519</v>
       </c>
       <c r="E592" t="n">
-        <v>0</v>
+        <v>32.467472</v>
       </c>
       <c r="F592" t="n">
-        <v>0</v>
+        <v>-84.995622</v>
       </c>
     </row>
     <row r="593">
@@ -14664,13 +14664,13 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>3653.400273</v>
       </c>
       <c r="E593" t="n">
-        <v>0</v>
+        <v>32.8229799</v>
       </c>
       <c r="F593" t="n">
-        <v>0</v>
+        <v>-117.1288651</v>
       </c>
     </row>
     <row r="594">
@@ -14688,13 +14688,13 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>3680.941003</v>
       </c>
       <c r="E594" t="n">
-        <v>0</v>
+        <v>33.6841245</v>
       </c>
       <c r="F594" t="n">
-        <v>0</v>
+        <v>-117.8526711</v>
       </c>
     </row>
     <row r="595">
